--- a/reports/Debug-snowbowl-20251217/Month to Date (Actual)_Visits.xlsx
+++ b/reports/Debug-snowbowl-20251217/Month to Date (Actual)_Visits.xlsx
@@ -31,16 +31,16 @@
     <t>Location</t>
   </si>
   <si>
+    <t>Snowbowl Comp Tickets</t>
+  </si>
+  <si>
     <t>Snowbowl Passes</t>
   </si>
   <si>
-    <t>Snowbowl Tickets</t>
+    <t>Snowbowl Uplift Tickets</t>
   </si>
   <si>
-    <t>Snowbowl Comp Tickets</t>
-  </si>
-  <si>
-    <t>Snowbowl Uplift Tickets</t>
+    <t>Snowbowl Tickets</t>
   </si>
 </sst>
 </file>
@@ -434,10 +434,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C2" s="2">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
@@ -451,10 +451,10 @@
         <v>45994</v>
       </c>
       <c r="C3" s="2">
-        <v>593</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -462,10 +462,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>45996</v>
+        <v>45995</v>
       </c>
       <c r="C4" s="2">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>5</v>
@@ -476,13 +476,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="C5" s="2">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -490,13 +490,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>45996</v>
+        <v>45998</v>
       </c>
       <c r="C6" s="2">
-        <v>1091</v>
+        <v>166</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -504,10 +504,10 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>45999</v>
+        <v>46000</v>
       </c>
       <c r="C7" s="2">
-        <v>1058</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>46000</v>
+        <v>46001</v>
       </c>
       <c r="C8" s="2">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -532,10 +532,10 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="C9" s="2">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>5</v>
@@ -549,10 +549,10 @@
         <v>46002</v>
       </c>
       <c r="C10" s="2">
-        <v>1080</v>
+        <v>82</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -563,10 +563,10 @@
         <v>46003</v>
       </c>
       <c r="C11" s="2">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -574,13 +574,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="2">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="C12" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -588,13 +588,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="2">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="C13" s="2">
-        <v>1548</v>
+        <v>1588</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -602,13 +602,13 @@
         <v>1</v>
       </c>
       <c r="B14" s="2">
-        <v>46006</v>
+        <v>46005</v>
       </c>
       <c r="C14" s="2">
-        <v>3</v>
+        <v>339</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -619,10 +619,10 @@
         <v>46006</v>
       </c>
       <c r="C15" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -630,13 +630,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="2">
-        <v>46008</v>
+        <v>46006</v>
       </c>
       <c r="C16" s="2">
-        <v>10</v>
+        <v>661</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -644,13 +644,13 @@
         <v>1</v>
       </c>
       <c r="B17" s="2">
-        <v>45992</v>
+        <v>46007</v>
       </c>
       <c r="C17" s="2">
-        <v>7</v>
+        <v>1414</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -658,13 +658,13 @@
         <v>1</v>
       </c>
       <c r="B18" s="2">
-        <v>45992</v>
+        <v>46008</v>
       </c>
       <c r="C18" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -672,13 +672,13 @@
         <v>1</v>
       </c>
       <c r="B19" s="2">
-        <v>45994</v>
+        <v>46008</v>
       </c>
       <c r="C19" s="2">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -686,13 +686,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="2">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="C20" s="2">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -700,13 +700,13 @@
         <v>1</v>
       </c>
       <c r="B21" s="2">
-        <v>45995</v>
+        <v>45993</v>
       </c>
       <c r="C21" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -714,13 +714,13 @@
         <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>45996</v>
+        <v>45993</v>
       </c>
       <c r="C22" s="2">
-        <v>1</v>
+        <v>738</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -728,13 +728,13 @@
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>45997</v>
+        <v>45993</v>
       </c>
       <c r="C23" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -742,13 +742,13 @@
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>45998</v>
+        <v>45994</v>
       </c>
       <c r="C24" s="2">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -756,13 +756,13 @@
         <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>45999</v>
+        <v>45996</v>
       </c>
       <c r="C25" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -770,13 +770,13 @@
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>46000</v>
+        <v>45996</v>
       </c>
       <c r="C26" s="2">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -784,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>46001</v>
+        <v>45997</v>
       </c>
       <c r="C27" s="2">
-        <v>87</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -798,13 +798,13 @@
         <v>1</v>
       </c>
       <c r="B28" s="2">
-        <v>46002</v>
+        <v>45997</v>
       </c>
       <c r="C28" s="2">
-        <v>11</v>
+        <v>1192</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -812,13 +812,13 @@
         <v>1</v>
       </c>
       <c r="B29" s="2">
-        <v>46002</v>
+        <v>45999</v>
       </c>
       <c r="C29" s="2">
-        <v>741</v>
+        <v>7</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -826,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="B30" s="2">
-        <v>46003</v>
+        <v>45999</v>
       </c>
       <c r="C30" s="2">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -840,13 +840,13 @@
         <v>1</v>
       </c>
       <c r="B31" s="2">
-        <v>46004</v>
+        <v>46000</v>
       </c>
       <c r="C31" s="2">
-        <v>417</v>
+        <v>570</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -854,13 +854,13 @@
         <v>1</v>
       </c>
       <c r="B32" s="2">
-        <v>46005</v>
+        <v>46001</v>
       </c>
       <c r="C32" s="2">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -868,13 +868,13 @@
         <v>1</v>
       </c>
       <c r="B33" s="2">
-        <v>46005</v>
+        <v>46003</v>
       </c>
       <c r="C33" s="2">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -882,13 +882,13 @@
         <v>1</v>
       </c>
       <c r="B34" s="2">
-        <v>46007</v>
+        <v>46004</v>
       </c>
       <c r="C34" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -899,7 +899,7 @@
         <v>46007</v>
       </c>
       <c r="C35" s="2">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>5</v>
@@ -910,13 +910,13 @@
         <v>1</v>
       </c>
       <c r="B36" s="2">
-        <v>46008</v>
+        <v>45992</v>
       </c>
       <c r="C36" s="2">
-        <v>596</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -924,10 +924,10 @@
         <v>1</v>
       </c>
       <c r="B37" s="2">
-        <v>46008</v>
+        <v>45994</v>
       </c>
       <c r="C37" s="2">
-        <v>1505</v>
+        <v>4</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>6</v>
@@ -938,13 +938,13 @@
         <v>1</v>
       </c>
       <c r="B38" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="C38" s="2">
-        <v>100</v>
+        <v>53</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -952,13 +952,13 @@
         <v>1</v>
       </c>
       <c r="B39" s="2">
-        <v>45994</v>
+        <v>45997</v>
       </c>
       <c r="C39" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -966,13 +966,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="2">
-        <v>45995</v>
+        <v>45997</v>
       </c>
       <c r="C40" s="2">
-        <v>78</v>
+        <v>173</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -980,13 +980,13 @@
         <v>1</v>
       </c>
       <c r="B41" s="2">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="C41" s="2">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -994,13 +994,13 @@
         <v>1</v>
       </c>
       <c r="B42" s="2">
-        <v>45998</v>
+        <v>46000</v>
       </c>
       <c r="C42" s="2">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1011,10 +1011,10 @@
         <v>46000</v>
       </c>
       <c r="C43" s="2">
-        <v>2</v>
+        <v>913</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1022,13 +1022,13 @@
         <v>1</v>
       </c>
       <c r="B44" s="2">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="C44" s="2">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1036,13 +1036,13 @@
         <v>1</v>
       </c>
       <c r="B45" s="2">
-        <v>46001</v>
+        <v>46003</v>
       </c>
       <c r="C45" s="2">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1050,10 +1050,10 @@
         <v>1</v>
       </c>
       <c r="B46" s="2">
-        <v>46002</v>
+        <v>46003</v>
       </c>
       <c r="C46" s="2">
-        <v>82</v>
+        <v>1104</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
@@ -1064,13 +1064,13 @@
         <v>1</v>
       </c>
       <c r="B47" s="2">
-        <v>46003</v>
+        <v>46004</v>
       </c>
       <c r="C47" s="2">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1081,10 +1081,10 @@
         <v>46004</v>
       </c>
       <c r="C48" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1092,10 +1092,10 @@
         <v>1</v>
       </c>
       <c r="B49" s="2">
-        <v>46004</v>
+        <v>46005</v>
       </c>
       <c r="C49" s="2">
-        <v>1588</v>
+        <v>91</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>6</v>
@@ -1106,13 +1106,13 @@
         <v>1</v>
       </c>
       <c r="B50" s="2">
-        <v>46005</v>
+        <v>46006</v>
       </c>
       <c r="C50" s="2">
-        <v>339</v>
+        <v>5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1123,10 +1123,10 @@
         <v>46006</v>
       </c>
       <c r="C51" s="2">
-        <v>71</v>
+        <v>1389</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1137,10 +1137,10 @@
         <v>46006</v>
       </c>
       <c r="C52" s="2">
-        <v>661</v>
+        <v>91</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1151,7 +1151,7 @@
         <v>46007</v>
       </c>
       <c r="C53" s="2">
-        <v>1414</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>6</v>
@@ -1165,10 +1165,10 @@
         <v>46008</v>
       </c>
       <c r="C54" s="2">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1176,13 +1176,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="2">
-        <v>46008</v>
+        <v>45993</v>
       </c>
       <c r="C55" s="2">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1190,13 +1190,13 @@
         <v>1</v>
       </c>
       <c r="B56" s="2">
-        <v>45992</v>
+        <v>45994</v>
       </c>
       <c r="C56" s="2">
-        <v>61</v>
+        <v>593</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1204,13 +1204,13 @@
         <v>1</v>
       </c>
       <c r="B57" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="C57" s="2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1218,10 +1218,10 @@
         <v>1</v>
       </c>
       <c r="B58" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="C58" s="2">
-        <v>738</v>
+        <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
@@ -1232,10 +1232,10 @@
         <v>1</v>
       </c>
       <c r="B59" s="2">
-        <v>45993</v>
+        <v>45996</v>
       </c>
       <c r="C59" s="2">
-        <v>40</v>
+        <v>1091</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>8</v>
@@ -1246,13 +1246,13 @@
         <v>1</v>
       </c>
       <c r="B60" s="2">
-        <v>45994</v>
+        <v>45999</v>
       </c>
       <c r="C60" s="2">
-        <v>10</v>
+        <v>1058</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1260,10 +1260,10 @@
         <v>1</v>
       </c>
       <c r="B61" s="2">
-        <v>45996</v>
+        <v>46000</v>
       </c>
       <c r="C61" s="2">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>5</v>
@@ -1274,13 +1274,13 @@
         <v>1</v>
       </c>
       <c r="B62" s="2">
-        <v>45996</v>
+        <v>46002</v>
       </c>
       <c r="C62" s="2">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1288,13 +1288,13 @@
         <v>1</v>
       </c>
       <c r="B63" s="2">
-        <v>45997</v>
+        <v>46002</v>
       </c>
       <c r="C63" s="2">
-        <v>13</v>
+        <v>1080</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1302,10 +1302,10 @@
         <v>1</v>
       </c>
       <c r="B64" s="2">
-        <v>45997</v>
+        <v>46003</v>
       </c>
       <c r="C64" s="2">
-        <v>1192</v>
+        <v>133</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>5</v>
@@ -1316,13 +1316,13 @@
         <v>1</v>
       </c>
       <c r="B65" s="2">
-        <v>45999</v>
+        <v>46005</v>
       </c>
       <c r="C65" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1330,10 +1330,10 @@
         <v>1</v>
       </c>
       <c r="B66" s="2">
-        <v>45999</v>
+        <v>46005</v>
       </c>
       <c r="C66" s="2">
-        <v>97</v>
+        <v>1548</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>8</v>
@@ -1344,13 +1344,13 @@
         <v>1</v>
       </c>
       <c r="B67" s="2">
-        <v>46000</v>
+        <v>46006</v>
       </c>
       <c r="C67" s="2">
-        <v>570</v>
+        <v>3</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1358,10 +1358,10 @@
         <v>1</v>
       </c>
       <c r="B68" s="2">
-        <v>46001</v>
+        <v>46006</v>
       </c>
       <c r="C68" s="2">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>5</v>
@@ -1372,13 +1372,13 @@
         <v>1</v>
       </c>
       <c r="B69" s="2">
-        <v>46003</v>
+        <v>46008</v>
       </c>
       <c r="C69" s="2">
-        <v>997</v>
+        <v>10</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="B70" s="2">
-        <v>46004</v>
+        <v>45992</v>
       </c>
       <c r="C70" s="2">
-        <v>245</v>
+        <v>1</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1400,13 +1400,13 @@
         <v>1</v>
       </c>
       <c r="B71" s="2">
-        <v>46007</v>
+        <v>45993</v>
       </c>
       <c r="C71" s="2">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1414,10 +1414,10 @@
         <v>1</v>
       </c>
       <c r="B72" s="2">
-        <v>45992</v>
+        <v>45993</v>
       </c>
       <c r="C72" s="2">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>5</v>
@@ -1431,10 +1431,10 @@
         <v>45994</v>
       </c>
       <c r="C73" s="2">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1442,13 +1442,13 @@
         <v>1</v>
       </c>
       <c r="B74" s="2">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="C74" s="2">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1459,10 +1459,10 @@
         <v>45997</v>
       </c>
       <c r="C75" s="2">
-        <v>3</v>
+        <v>235</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1473,10 +1473,10 @@
         <v>45997</v>
       </c>
       <c r="C76" s="2">
-        <v>173</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1484,13 +1484,13 @@
         <v>1</v>
       </c>
       <c r="B77" s="2">
-        <v>45999</v>
+        <v>45998</v>
       </c>
       <c r="C77" s="2">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1498,13 +1498,13 @@
         <v>1</v>
       </c>
       <c r="B78" s="2">
-        <v>46000</v>
+        <v>45998</v>
       </c>
       <c r="C78" s="2">
-        <v>5</v>
+        <v>1151</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1512,10 +1512,10 @@
         <v>1</v>
       </c>
       <c r="B79" s="2">
-        <v>46000</v>
+        <v>45999</v>
       </c>
       <c r="C79" s="2">
-        <v>913</v>
+        <v>2</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>6</v>
@@ -1526,13 +1526,13 @@
         <v>1</v>
       </c>
       <c r="B80" s="2">
-        <v>46002</v>
+        <v>46000</v>
       </c>
       <c r="C80" s="2">
-        <v>79</v>
+        <v>7</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1540,13 +1540,13 @@
         <v>1</v>
       </c>
       <c r="B81" s="2">
-        <v>46003</v>
+        <v>46000</v>
       </c>
       <c r="C81" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1554,10 +1554,10 @@
         <v>1</v>
       </c>
       <c r="B82" s="2">
-        <v>46003</v>
+        <v>46001</v>
       </c>
       <c r="C82" s="2">
-        <v>1104</v>
+        <v>97</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
@@ -1568,13 +1568,13 @@
         <v>1</v>
       </c>
       <c r="B83" s="2">
-        <v>46004</v>
+        <v>46001</v>
       </c>
       <c r="C83" s="2">
-        <v>2</v>
+        <v>725</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1582,13 +1582,13 @@
         <v>1</v>
       </c>
       <c r="B84" s="2">
-        <v>46004</v>
+        <v>46003</v>
       </c>
       <c r="C84" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1596,13 +1596,13 @@
         <v>1</v>
       </c>
       <c r="B85" s="2">
-        <v>46005</v>
+        <v>46003</v>
       </c>
       <c r="C85" s="2">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1610,13 +1610,13 @@
         <v>1</v>
       </c>
       <c r="B86" s="2">
-        <v>46006</v>
+        <v>46004</v>
       </c>
       <c r="C86" s="2">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1624,10 +1624,10 @@
         <v>1</v>
       </c>
       <c r="B87" s="2">
-        <v>46006</v>
+        <v>46004</v>
       </c>
       <c r="C87" s="2">
-        <v>1389</v>
+        <v>847</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>6</v>
@@ -1638,13 +1638,13 @@
         <v>1</v>
       </c>
       <c r="B88" s="2">
-        <v>46006</v>
+        <v>46005</v>
       </c>
       <c r="C88" s="2">
-        <v>91</v>
+        <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1652,13 +1652,13 @@
         <v>1</v>
       </c>
       <c r="B89" s="2">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="C89" s="2">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1666,13 +1666,13 @@
         <v>1</v>
       </c>
       <c r="B90" s="2">
-        <v>46008</v>
+        <v>46007</v>
       </c>
       <c r="C90" s="2">
-        <v>82</v>
+        <v>574</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1680,13 +1680,13 @@
         <v>1</v>
       </c>
       <c r="B91" s="2">
-        <v>45992</v>
+        <v>46008</v>
       </c>
       <c r="C91" s="2">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1694,13 +1694,13 @@
         <v>1</v>
       </c>
       <c r="B92" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C92" s="2">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1708,13 +1708,13 @@
         <v>1</v>
       </c>
       <c r="B93" s="2">
-        <v>45993</v>
+        <v>45992</v>
       </c>
       <c r="C93" s="2">
-        <v>488</v>
+        <v>656</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1722,13 +1722,13 @@
         <v>1</v>
       </c>
       <c r="B94" s="2">
-        <v>45994</v>
+        <v>45992</v>
       </c>
       <c r="C94" s="2">
-        <v>3</v>
+        <v>797</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1736,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="B95" s="2">
-        <v>45994</v>
+        <v>45995</v>
       </c>
       <c r="C95" s="2">
-        <v>711</v>
+        <v>1</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>6</v>
@@ -1753,10 +1753,10 @@
         <v>45995</v>
       </c>
       <c r="C96" s="2">
-        <v>9</v>
+        <v>803</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1767,7 +1767,7 @@
         <v>45995</v>
       </c>
       <c r="C97" s="2">
-        <v>64</v>
+        <v>865</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>8</v>
@@ -1781,7 +1781,7 @@
         <v>45996</v>
       </c>
       <c r="C98" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>5</v>
@@ -1792,13 +1792,13 @@
         <v>1</v>
       </c>
       <c r="B99" s="2">
-        <v>45996</v>
+        <v>45997</v>
       </c>
       <c r="C99" s="2">
-        <v>1326</v>
+        <v>1</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1806,13 +1806,13 @@
         <v>1</v>
       </c>
       <c r="B100" s="2">
-        <v>45997</v>
+        <v>45998</v>
       </c>
       <c r="C100" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1820,13 +1820,13 @@
         <v>1</v>
       </c>
       <c r="B101" s="2">
-        <v>45997</v>
+        <v>45998</v>
       </c>
       <c r="C101" s="2">
-        <v>1627</v>
+        <v>1401</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1834,10 +1834,10 @@
         <v>1</v>
       </c>
       <c r="B102" s="2">
-        <v>45998</v>
+        <v>45999</v>
       </c>
       <c r="C102" s="2">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>5</v>
@@ -1848,13 +1848,13 @@
         <v>1</v>
       </c>
       <c r="B103" s="2">
-        <v>45998</v>
+        <v>46001</v>
       </c>
       <c r="C103" s="2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1862,13 +1862,13 @@
         <v>1</v>
       </c>
       <c r="B104" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C104" s="2">
-        <v>718</v>
+        <v>1</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1876,13 +1876,13 @@
         <v>1</v>
       </c>
       <c r="B105" s="2">
-        <v>45999</v>
+        <v>46001</v>
       </c>
       <c r="C105" s="2">
-        <v>1</v>
+        <v>1004</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1890,13 +1890,13 @@
         <v>1</v>
       </c>
       <c r="B106" s="2">
-        <v>46000</v>
+        <v>46002</v>
       </c>
       <c r="C106" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1904,13 +1904,13 @@
         <v>1</v>
       </c>
       <c r="B107" s="2">
-        <v>46001</v>
+        <v>46002</v>
       </c>
       <c r="C107" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1918,10 +1918,10 @@
         <v>1</v>
       </c>
       <c r="B108" s="2">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="C108" s="2">
-        <v>9</v>
+        <v>91</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>5</v>
@@ -1932,13 +1932,13 @@
         <v>1</v>
       </c>
       <c r="B109" s="2">
-        <v>46008</v>
+        <v>46003</v>
       </c>
       <c r="C109" s="2">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1946,13 +1946,13 @@
         <v>1</v>
       </c>
       <c r="B110" s="2">
-        <v>45992</v>
+        <v>46004</v>
       </c>
       <c r="C110" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1960,13 +1960,13 @@
         <v>1</v>
       </c>
       <c r="B111" s="2">
-        <v>45993</v>
+        <v>46005</v>
       </c>
       <c r="C111" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1974,13 +1974,13 @@
         <v>1</v>
       </c>
       <c r="B112" s="2">
-        <v>45993</v>
+        <v>46005</v>
       </c>
       <c r="C112" s="2">
-        <v>67</v>
+        <v>2</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1988,13 +1988,13 @@
         <v>1</v>
       </c>
       <c r="B113" s="2">
-        <v>45994</v>
+        <v>46005</v>
       </c>
       <c r="C113" s="2">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2002,10 +2002,10 @@
         <v>1</v>
       </c>
       <c r="B114" s="2">
-        <v>45995</v>
+        <v>46005</v>
       </c>
       <c r="C114" s="2">
-        <v>67</v>
+        <v>187</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>5</v>
@@ -2016,13 +2016,13 @@
         <v>1</v>
       </c>
       <c r="B115" s="2">
-        <v>45997</v>
+        <v>46007</v>
       </c>
       <c r="C115" s="2">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2030,13 +2030,13 @@
         <v>1</v>
       </c>
       <c r="B116" s="2">
-        <v>45997</v>
+        <v>46007</v>
       </c>
       <c r="C116" s="2">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2044,13 +2044,13 @@
         <v>1</v>
       </c>
       <c r="B117" s="2">
-        <v>45998</v>
+        <v>46008</v>
       </c>
       <c r="C117" s="2">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2058,13 +2058,13 @@
         <v>1</v>
       </c>
       <c r="B118" s="2">
-        <v>45998</v>
+        <v>46008</v>
       </c>
       <c r="C118" s="2">
-        <v>1151</v>
+        <v>2</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2072,13 +2072,13 @@
         <v>1</v>
       </c>
       <c r="B119" s="2">
-        <v>45999</v>
+        <v>45992</v>
       </c>
       <c r="C119" s="2">
-        <v>2</v>
+        <v>117</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2086,13 +2086,13 @@
         <v>1</v>
       </c>
       <c r="B120" s="2">
-        <v>46000</v>
+        <v>45993</v>
       </c>
       <c r="C120" s="2">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2100,13 +2100,13 @@
         <v>1</v>
       </c>
       <c r="B121" s="2">
-        <v>46000</v>
+        <v>45993</v>
       </c>
       <c r="C121" s="2">
-        <v>53</v>
+        <v>488</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2114,13 +2114,13 @@
         <v>1</v>
       </c>
       <c r="B122" s="2">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="C122" s="2">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2128,13 +2128,13 @@
         <v>1</v>
       </c>
       <c r="B123" s="2">
-        <v>46001</v>
+        <v>45994</v>
       </c>
       <c r="C123" s="2">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2142,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="B124" s="2">
-        <v>46003</v>
+        <v>45995</v>
       </c>
       <c r="C124" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2156,13 +2156,13 @@
         <v>1</v>
       </c>
       <c r="B125" s="2">
-        <v>46003</v>
+        <v>45995</v>
       </c>
       <c r="C125" s="2">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2170,13 +2170,13 @@
         <v>1</v>
       </c>
       <c r="B126" s="2">
-        <v>46004</v>
+        <v>45996</v>
       </c>
       <c r="C126" s="2">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2184,13 +2184,13 @@
         <v>1</v>
       </c>
       <c r="B127" s="2">
-        <v>46004</v>
+        <v>45996</v>
       </c>
       <c r="C127" s="2">
-        <v>847</v>
+        <v>1326</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2198,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="B128" s="2">
-        <v>46005</v>
+        <v>45997</v>
       </c>
       <c r="C128" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2212,13 +2212,13 @@
         <v>1</v>
       </c>
       <c r="B129" s="2">
-        <v>46006</v>
+        <v>45997</v>
       </c>
       <c r="C129" s="2">
-        <v>5</v>
+        <v>1627</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2226,13 +2226,13 @@
         <v>1</v>
       </c>
       <c r="B130" s="2">
-        <v>46007</v>
+        <v>45998</v>
       </c>
       <c r="C130" s="2">
-        <v>574</v>
+        <v>21</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2240,13 +2240,13 @@
         <v>1</v>
       </c>
       <c r="B131" s="2">
-        <v>46008</v>
+        <v>45998</v>
       </c>
       <c r="C131" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2254,13 +2254,13 @@
         <v>1</v>
       </c>
       <c r="B132" s="2">
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="C132" s="2">
-        <v>11</v>
+        <v>718</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2268,13 +2268,13 @@
         <v>1</v>
       </c>
       <c r="B133" s="2">
-        <v>45992</v>
+        <v>45999</v>
       </c>
       <c r="C133" s="2">
-        <v>656</v>
+        <v>1</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2282,10 +2282,10 @@
         <v>1</v>
       </c>
       <c r="B134" s="2">
-        <v>45992</v>
+        <v>46000</v>
       </c>
       <c r="C134" s="2">
-        <v>797</v>
+        <v>7</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>6</v>
@@ -2296,13 +2296,13 @@
         <v>1</v>
       </c>
       <c r="B135" s="2">
-        <v>45995</v>
+        <v>46001</v>
       </c>
       <c r="C135" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2310,13 +2310,13 @@
         <v>1</v>
       </c>
       <c r="B136" s="2">
-        <v>45995</v>
+        <v>46003</v>
       </c>
       <c r="C136" s="2">
-        <v>803</v>
+        <v>9</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2324,13 +2324,13 @@
         <v>1</v>
       </c>
       <c r="B137" s="2">
-        <v>45995</v>
+        <v>46008</v>
       </c>
       <c r="C137" s="2">
-        <v>865</v>
+        <v>118</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2338,13 +2338,13 @@
         <v>1</v>
       </c>
       <c r="B138" s="2">
-        <v>45996</v>
+        <v>45992</v>
       </c>
       <c r="C138" s="2">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2352,13 +2352,13 @@
         <v>1</v>
       </c>
       <c r="B139" s="2">
-        <v>45997</v>
+        <v>45992</v>
       </c>
       <c r="C139" s="2">
         <v>1</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2366,13 +2366,13 @@
         <v>1</v>
       </c>
       <c r="B140" s="2">
-        <v>45998</v>
+        <v>45994</v>
       </c>
       <c r="C140" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2380,10 +2380,10 @@
         <v>1</v>
       </c>
       <c r="B141" s="2">
-        <v>45998</v>
+        <v>45994</v>
       </c>
       <c r="C141" s="2">
-        <v>1401</v>
+        <v>54</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>6</v>
@@ -2394,13 +2394,13 @@
         <v>1</v>
       </c>
       <c r="B142" s="2">
-        <v>45999</v>
+        <v>45995</v>
       </c>
       <c r="C142" s="2">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2408,13 +2408,13 @@
         <v>1</v>
       </c>
       <c r="B143" s="2">
-        <v>46001</v>
+        <v>45996</v>
       </c>
       <c r="C143" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2422,13 +2422,13 @@
         <v>1</v>
       </c>
       <c r="B144" s="2">
-        <v>46001</v>
+        <v>45997</v>
       </c>
       <c r="C144" s="2">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2436,13 +2436,13 @@
         <v>1</v>
       </c>
       <c r="B145" s="2">
-        <v>46001</v>
+        <v>45998</v>
       </c>
       <c r="C145" s="2">
-        <v>1004</v>
+        <v>205</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2450,13 +2450,13 @@
         <v>1</v>
       </c>
       <c r="B146" s="2">
-        <v>46002</v>
+        <v>45999</v>
       </c>
       <c r="C146" s="2">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2464,13 +2464,13 @@
         <v>1</v>
       </c>
       <c r="B147" s="2">
-        <v>46002</v>
+        <v>46000</v>
       </c>
       <c r="C147" s="2">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2478,10 +2478,10 @@
         <v>1</v>
       </c>
       <c r="B148" s="2">
-        <v>46002</v>
+        <v>46001</v>
       </c>
       <c r="C148" s="2">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>7</v>
@@ -2492,13 +2492,13 @@
         <v>1</v>
       </c>
       <c r="B149" s="2">
-        <v>46003</v>
+        <v>46002</v>
       </c>
       <c r="C149" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2506,13 +2506,13 @@
         <v>1</v>
       </c>
       <c r="B150" s="2">
-        <v>46004</v>
+        <v>46002</v>
       </c>
       <c r="C150" s="2">
-        <v>5</v>
+        <v>741</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2520,13 +2520,13 @@
         <v>1</v>
       </c>
       <c r="B151" s="2">
-        <v>46005</v>
+        <v>46003</v>
       </c>
       <c r="C151" s="2">
         <v>2</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2534,13 +2534,13 @@
         <v>1</v>
       </c>
       <c r="B152" s="2">
-        <v>46005</v>
+        <v>46004</v>
       </c>
       <c r="C152" s="2">
-        <v>2</v>
+        <v>417</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2551,10 +2551,10 @@
         <v>46005</v>
       </c>
       <c r="C153" s="2">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2565,10 +2565,10 @@
         <v>46005</v>
       </c>
       <c r="C154" s="2">
-        <v>187</v>
+        <v>993</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2579,10 +2579,10 @@
         <v>46007</v>
       </c>
       <c r="C155" s="2">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2593,10 +2593,10 @@
         <v>46007</v>
       </c>
       <c r="C156" s="2">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2607,10 +2607,10 @@
         <v>46008</v>
       </c>
       <c r="C157" s="2">
-        <v>2</v>
+        <v>596</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2621,10 +2621,10 @@
         <v>46008</v>
       </c>
       <c r="C158" s="2">
-        <v>2</v>
+        <v>1505</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
